--- a/data/wc22_team.xlsx
+++ b/data/wc22_team.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\340057662\Py\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView windowWidth="13725" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
-  <si>
-    <t>nt_name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>confederation</t>
   </si>
   <si>
     <t>nt_url</t>
@@ -33,57 +35,99 @@
     <t>squad_url</t>
   </si>
   <si>
+    <t>avg_mv</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>UEFA</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/niederlande/spielplan/verein/3379/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/122.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/niederlande/kader/verein/3379/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>CAF</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/senegal/spielplan/verein/3499/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/149.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/senegal/kader/verein/3499/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Ecuador</t>
   </si>
   <si>
+    <t>CONMEBOL</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/ecuador/spielplan/verein/5750/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/44.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/ecuador/kader/verein/5750/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Qatar</t>
   </si>
   <si>
+    <t>AFC</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/katar/spielplan/verein/14162/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/137.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/katar/kader/verein/14162/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>England</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/england/spielplan/verein/3299/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/189.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/england/kader/verein/3299/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
+    <t>CONCACAF</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/vereinigte-staaten/spielplan/verein/3505/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/184.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/vereinigte-staaten/kader/verein/3505/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -93,6 +137,9 @@
     <t>https://www.transfermarkt.com/iran/spielplan/verein/3582/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/71.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/iran/kader/verein/3582/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -102,15 +149,24 @@
     <t>https://www.transfermarkt.com/wales/spielplan/verein/3864/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/191.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/wales/kader/verein/3864/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/argentinien/spielplan/verein/3437/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/9.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/argentinien/kader/verein/3437/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -120,6 +176,9 @@
     <t>https://www.transfermarkt.com/polen/spielplan/verein/3442/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/135.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/polen/kader/verein/3442/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -129,6 +188,9 @@
     <t>https://www.transfermarkt.com/saudi-arabien/spielplan/verein/3807/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/146.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/saudi-arabien/kader/verein/3807/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -138,15 +200,24 @@
     <t>https://www.transfermarkt.com/mexiko/spielplan/verein/6303/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/110.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/mexiko/kader/verein/6303/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/frankreich/spielplan/verein/3377/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/50.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/frankreich/kader/verein/3377/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -156,6 +227,9 @@
     <t>https://www.transfermarkt.com/australien/spielplan/verein/3433/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/12.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/australien/kader/verein/3433/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -165,6 +239,9 @@
     <t>https://www.transfermarkt.com/danemark/spielplan/verein/3436/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/39.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/danemark/kader/verein/3436/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -174,15 +251,24 @@
     <t>https://www.transfermarkt.com/tunesien/spielplan/verein/3670/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/173.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/tunesien/kader/verein/3670/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/deutschland/spielplan/verein/3262/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/40.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/deutschland/kader/verein/3262/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -192,6 +278,9 @@
     <t>https://www.transfermarkt.com/spanien/spielplan/verein/3375/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/157.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/spanien/kader/verein/3375/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -201,6 +290,9 @@
     <t>https://www.transfermarkt.com/japan/spielplan/verein/3435/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/77.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/japan/kader/verein/3435/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -210,15 +302,24 @@
     <t>https://www.transfermarkt.com/costa-rica/spielplan/verein/8497/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/36.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/costa-rica/kader/verein/8497/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Belgium</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/belgien/spielplan/verein/3382/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/19.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/belgien/kader/verein/3382/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -228,6 +329,9 @@
     <t>https://www.transfermarkt.com/kanada/spielplan/verein/3510/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/80.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/kanada/kader/verein/3510/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -237,6 +341,9 @@
     <t>https://www.transfermarkt.com/kroatien/spielplan/verein/3556/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/37.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/kroatien/kader/verein/3556/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -246,15 +353,24 @@
     <t>https://www.transfermarkt.com/marokko/spielplan/verein/3575/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/107.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/marokko/kader/verein/3575/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/schweiz/spielplan/verein/3384/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/148.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/schweiz/kader/verein/3384/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -264,6 +380,9 @@
     <t>https://www.transfermarkt.com/kamerun/spielplan/verein/3434/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/31.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/kamerun/kader/verein/3434/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -273,6 +392,9 @@
     <t>https://www.transfermarkt.com/serbien/spielplan/verein/3438/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/215.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/serbien/kader/verein/3438/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -282,15 +404,24 @@
     <t>https://www.transfermarkt.com/brasilien/spielplan/verein/3439/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/26.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/brasilien/kader/verein/3439/saison_id/2021/plus/1</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/portugal/spielplan/verein/3300/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/136.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/portugal/kader/verein/3300/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -300,6 +431,9 @@
     <t>https://www.transfermarkt.com/ghana/spielplan/verein/3441/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/54.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/ghana/kader/verein/3441/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -309,6 +443,9 @@
     <t>https://www.transfermarkt.com/uruguay/spielplan/verein/3449/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/179.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/uruguay/kader/verein/3449/saison_id/2021/plus/1</t>
   </si>
   <si>
@@ -318,94 +455,384 @@
     <t>https://www.transfermarkt.com/sudkorea/spielplan/verein/3589/saison_id/2021</t>
   </si>
   <si>
+    <t>https://tmssl.akamaized.net/images/flagge/head/87.png</t>
+  </si>
+  <si>
     <t>https://www.transfermarkt.com/sudkorea/kader/verein/3589/saison_id/2021/plus/1</t>
-  </si>
-  <si>
-    <t>confederation</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>UEFA</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>CONCACAF</t>
-  </si>
-  <si>
-    <t>AFC</t>
-  </si>
-  <si>
-    <t>CONMEBOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -428,29 +855,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -735,720 +1447,909 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>22586538.4615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>8826923.07692308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>5634615.38461538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>573076.923076923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>48461538.4615385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>10669230.7692308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>2381000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>6159615.38461538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>24815384.6153846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11">
+        <v>9830769.23076923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>969230.769230769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>6773076.92307692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>39900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>1434615.38461538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>13576923.0769231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <v>34057692.3076923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <v>33730769.2307692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20">
+        <v>5923076.92307692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>721153.846153846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22">
+        <v>21661538.4615385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>7203846.15384615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24">
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25">
+        <v>9273076.92307692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26">
+        <v>10807692.3076923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27">
+        <v>5961538.46153846</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28">
+        <v>13826923.0769231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29">
+        <v>43923076.9230769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30">
+        <v>36038461.5384615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31">
+        <v>8342307.69230769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32">
+        <v>17296153.8461539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>99</v>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33">
+        <v>6325961.53846154</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" display="https://tmssl.akamaized.net/images/flagge/head/184.png"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://tmssl.akamaized.net/images/flagge/head/71.png"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://tmssl.akamaized.net/images/flagge/head/191.png"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://tmssl.akamaized.net/images/flagge/head/9.png"/>
+    <hyperlink ref="F11" r:id="rId5" display="https://tmssl.akamaized.net/images/flagge/head/135.png"/>
+    <hyperlink ref="F12" r:id="rId6" display="https://tmssl.akamaized.net/images/flagge/head/146.png"/>
+    <hyperlink ref="F13" r:id="rId7" display="https://tmssl.akamaized.net/images/flagge/head/110.png"/>
+    <hyperlink ref="F14" r:id="rId8" display="https://tmssl.akamaized.net/images/flagge/head/50.png"/>
+    <hyperlink ref="F15" r:id="rId9" display="https://tmssl.akamaized.net/images/flagge/head/12.png"/>
+    <hyperlink ref="F16" r:id="rId10" display="https://tmssl.akamaized.net/images/flagge/head/39.png"/>
+    <hyperlink ref="F17" r:id="rId11" display="https://tmssl.akamaized.net/images/flagge/head/173.png"/>
+    <hyperlink ref="F18" r:id="rId12" display="https://tmssl.akamaized.net/images/flagge/head/40.png"/>
+    <hyperlink ref="F19" r:id="rId13" display="https://tmssl.akamaized.net/images/flagge/head/157.png"/>
+    <hyperlink ref="F20" r:id="rId14" display="https://tmssl.akamaized.net/images/flagge/head/77.png"/>
+    <hyperlink ref="F21" r:id="rId15" display="https://tmssl.akamaized.net/images/flagge/head/36.png"/>
+    <hyperlink ref="F22" r:id="rId16" display="https://tmssl.akamaized.net/images/flagge/head/19.png"/>
+    <hyperlink ref="F23" r:id="rId17" display="https://tmssl.akamaized.net/images/flagge/head/80.png"/>
+    <hyperlink ref="F24" r:id="rId18" display="https://tmssl.akamaized.net/images/flagge/head/37.png"/>
+    <hyperlink ref="F25" r:id="rId19" display="https://tmssl.akamaized.net/images/flagge/head/107.png"/>
+    <hyperlink ref="F26" r:id="rId20" display="https://tmssl.akamaized.net/images/flagge/head/148.png"/>
+    <hyperlink ref="F27" r:id="rId21" display="https://tmssl.akamaized.net/images/flagge/head/31.png"/>
+    <hyperlink ref="F28" r:id="rId22" display="https://tmssl.akamaized.net/images/flagge/head/215.png"/>
+    <hyperlink ref="F29" r:id="rId23" display="https://tmssl.akamaized.net/images/flagge/head/26.png"/>
+    <hyperlink ref="F30" r:id="rId24" display="https://tmssl.akamaized.net/images/flagge/head/136.png"/>
+    <hyperlink ref="F31" r:id="rId25" display="https://tmssl.akamaized.net/images/flagge/head/54.png"/>
+    <hyperlink ref="F32" r:id="rId26" display="https://tmssl.akamaized.net/images/flagge/head/179.png"/>
+    <hyperlink ref="F33" r:id="rId27" display="https://tmssl.akamaized.net/images/flagge/head/87.png"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>